--- a/hz-back/src/main/resources/excel/按揭类出证信息导入模板.xlsx
+++ b/hz-back/src/main/resources/excel/按揭类出证信息导入模板.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19BF620D-6237-4891-BD6C-218B5ACF255D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F06BA411-24CC-47C8-B0AA-3115D3BCE20D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -183,9 +183,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
-  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -248,24 +245,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
@@ -276,9 +261,12 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -619,78 +607,79 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="2"/>
-    <col min="2" max="2" width="20.875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="1"/>
+    <col min="2" max="2" width="20.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="22.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.125" customWidth="1"/>
+    <col min="4" max="4" width="15.125" style="1" customWidth="1"/>
     <col min="5" max="5" width="24.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="25.625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="29.125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="24.625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="20.75" style="2" customWidth="1"/>
+    <col min="6" max="6" width="25.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="29.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="24.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.75" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="61.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="8" t="s">
         <v>17</v>
       </c>
     </row>

--- a/hz-back/src/main/resources/excel/按揭类出证信息导入模板.xlsx
+++ b/hz-back/src/main/resources/excel/按揭类出证信息导入模板.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21901"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F06BA411-24CC-47C8-B0AA-3115D3BCE20D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD21A6D0-AB1D-499C-B4AD-330EA73D49A3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -183,6 +183,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -245,7 +248,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -264,9 +267,12 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -608,7 +614,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -661,25 +667,25 @@
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="7" t="s">
         <v>17</v>
       </c>
     </row>
